--- a/data/raw/sales/Week 5/Audio_Array/other_channels.xlsx
+++ b/data/raw/sales/Week 5/Audio_Array/other_channels.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Other computers\My Laptop\D\Nitesh\Weekly Report - B2B + B2C\FastAPI\data\raw\sales\Week 5\Audio_Array\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91482C65-34B6-4E1B-9DE3-A5F8FBDF3793}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A057337-6846-48F2-962B-7EB28C08E75E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="6" xr2:uid="{00DB3424-A17B-4A18-BC6A-329A1F1119CF}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{00DB3424-A17B-4A18-BC6A-329A1F1119CF}"/>
   </bookViews>
   <sheets>
     <sheet name="D2C - Audio Array" sheetId="4" r:id="rId1"/>
@@ -1605,8 +1605,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACAE42B2-A81A-4B7E-B435-930C5A44A069}">
   <dimension ref="A1:E36"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D32"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2194,7 +2194,7 @@
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D5"/>
+      <selection activeCell="C2" sqref="C2:C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2348,7 +2348,7 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F7"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2509,8 +2509,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEFCE879-280C-4E5F-92D0-2856EC6FD320}">
   <dimension ref="A1:G83"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F76"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4385,8 +4385,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{998B2A50-6942-45EF-91DE-24539BE68CC0}">
   <dimension ref="A1:F48"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4995,7 +4995,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4133E52-B5B3-48AB-A601-472716D39F07}">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
